--- a/SysSettings.xlsx
+++ b/SysSettings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\_TrainingMaterial\VEDA-Training\DemoS_004\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\Veda_models\demos004_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAF1695-F6E3-4B9F-9F12-F6E05BE7D852}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A037F07-7E08-4813-9905-772AA9F18DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="853" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Region-Time Slices" sheetId="16" r:id="rId1"/>
@@ -3214,20 +3214,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="3.42578125" customWidth="1"/>
-    <col min="8" max="8" width="29.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5546875" customWidth="1"/>
+    <col min="7" max="7" width="3.44140625" customWidth="1"/>
+    <col min="8" max="8" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="1" t="s">
         <v>5</v>
@@ -3238,7 +3238,7 @@
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -3256,7 +3256,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="15" t="s">
         <v>65</v>
@@ -3272,7 +3272,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -3284,126 +3284,126 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="6"/>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A33" s="6"/>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A34" s="6"/>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A35" s="6"/>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A36" s="6"/>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A37" s="6"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="6"/>
     </row>
   </sheetData>
@@ -3420,45 +3420,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:C17"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.71875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B3" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>2005</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B7" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B11" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B12" s="13" t="s">
         <v>24</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B13" s="14">
         <v>1</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B14" s="14">
         <v>2</v>
       </c>
@@ -3482,22 +3482,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B15" s="14"/>
       <c r="C15" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B16" s="14"/>
       <c r="C16" s="14">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.4">
       <c r="B17" s="14"/>
       <c r="C17" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -3517,25 +3517,25 @@
       <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.7109375" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.27734375" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="4" max="4" width="9.71875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.71875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
+    <col min="7" max="7" width="10.71875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="10.71875" customWidth="1"/>
+    <col min="13" max="13" width="9.27734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B3" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -3552,7 +3552,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
         <v>66</v>
       </c>
@@ -3566,26 +3566,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="2:4" ht="15" x14ac:dyDescent="0.5">
       <c r="B28" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8" t="s">
         <v>25</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B32" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B33" s="5" t="s">
         <v>17</v>
       </c>
@@ -3599,7 +3599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B34" t="s">
         <v>3</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B35" t="s">
         <v>3</v>
       </c>
@@ -3627,12 +3627,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="39" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B39" s="5" t="s">
         <v>17</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B40" t="s">
         <v>69</v>
       </c>
@@ -3677,28 +3677,28 @@
       <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="10"/>
-    <col min="2" max="2" width="12.140625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" style="10" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="10"/>
+    <col min="2" max="2" width="12.1640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="14" style="10" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.42578125" style="10" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="10"/>
+    <col min="5" max="5" width="10.44140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.44140625" style="10" customWidth="1"/>
+    <col min="7" max="16384" width="9.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:7" ht="15" x14ac:dyDescent="0.5">
       <c r="B3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
@@ -3718,7 +3718,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D7" s="10" t="s">
         <v>37</v>
       </c>
@@ -3727,7 +3727,7 @@
       </c>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.4">
       <c r="D8" s="10" t="s">
         <v>27</v>
       </c>
@@ -3736,7 +3736,7 @@
       </c>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B9" s="70" t="s">
         <v>44</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>0.24971461187214614</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B10" s="70" t="s">
         <v>45</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0.22973744292237441</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B11" s="70" t="s">
         <v>46</v>
       </c>
@@ -3775,7 +3775,7 @@
         <v>0.24942922374429224</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B12" s="70" t="s">
         <v>47</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>0.27111872146118721</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" s="16" t="s">
@@ -3802,21 +3802,21 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" s="16"/>
       <c r="E14" s="16"/>
       <c r="F14" s="17"/>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" s="16"/>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
@@ -3824,7 +3824,7 @@
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
@@ -3832,7 +3832,7 @@
       <c r="F17" s="16"/>
       <c r="G17" s="16"/>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
@@ -3840,7 +3840,7 @@
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="2:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" ht="17.399999999999999" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="21" t="s">
         <v>43</v>
       </c>
@@ -3850,14 +3850,14 @@
       <c r="F19" s="23"/>
       <c r="G19" s="23"/>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B20" s="24"/>
       <c r="C20" s="25"/>
       <c r="D20" s="25"/>
       <c r="E20" s="26"/>
       <c r="F20" s="26"/>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B21" s="27" t="s">
         <v>17</v>
       </c>
@@ -3874,7 +3874,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="24" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7" ht="22.8" x14ac:dyDescent="0.4">
       <c r="B22" s="31"/>
       <c r="C22" s="32" t="s">
         <v>48</v>
@@ -3889,7 +3889,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B23" s="27" t="s">
         <v>36</v>
       </c>
@@ -3914,14 +3914,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B24" s="39"/>
       <c r="C24" s="39"/>
       <c r="D24" s="39"/>
       <c r="E24" s="40"/>
       <c r="F24" s="40"/>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B25" s="40"/>
       <c r="C25" s="41"/>
       <c r="D25" s="41"/>
@@ -3929,7 +3929,7 @@
       <c r="F25" s="39"/>
       <c r="G25" s="42"/>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B26" s="42"/>
       <c r="C26" s="43" t="s">
         <v>52</v>
@@ -3943,7 +3943,7 @@
       <c r="F26" s="46"/>
       <c r="G26" s="42"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B27" s="47" t="s">
         <v>55</v>
       </c>
@@ -3960,7 +3960,7 @@
       <c r="F27" s="51"/>
       <c r="G27" s="42"/>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B28" s="52" t="s">
         <v>57</v>
       </c>
@@ -3978,7 +3978,7 @@
       <c r="F28" s="51"/>
       <c r="G28" s="42"/>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B29" s="40"/>
       <c r="C29" s="42"/>
       <c r="D29" s="56">
@@ -3992,7 +3992,7 @@
       <c r="F29" s="58"/>
       <c r="G29" s="42"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B30" s="40"/>
       <c r="C30" s="42"/>
       <c r="D30" s="59"/>
@@ -4000,7 +4000,7 @@
       <c r="F30" s="42"/>
       <c r="G30" s="42"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B31" s="60"/>
       <c r="C31" s="61" t="s">
         <v>59</v>
@@ -4012,7 +4012,7 @@
       <c r="F31" s="42"/>
       <c r="G31" s="42"/>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B32" s="63" t="s">
         <v>56</v>
       </c>
@@ -4029,7 +4029,7 @@
       </c>
       <c r="G32" s="42"/>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.4">
       <c r="B33" s="67" t="s">
         <v>61</v>
       </c>
@@ -4063,13 +4063,13 @@
       <selection activeCell="B12" sqref="B12:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.71875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2" s="1" t="s">
         <v>29</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B3" s="11" t="s">
         <v>30</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4" s="18" t="s">
         <v>68</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B5" s="6"/>
       <c r="D5" t="s">
         <v>33</v>
@@ -4108,7 +4108,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B6" s="6"/>
       <c r="D6" t="s">
         <v>34</v>
@@ -4117,15 +4117,15 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B7" s="6"/>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B13" t="s">
         <v>75</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B14" t="s">
         <v>78</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>1055.55</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B15" t="s">
         <v>79</v>
       </c>
@@ -4158,7 +4158,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B16" t="s">
         <v>80</v>
       </c>
@@ -4169,7 +4169,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B17" t="s">
         <v>82</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B18" t="s">
         <v>84</v>
       </c>
@@ -4191,7 +4191,7 @@
         <v>1.05555</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B19" t="s">
         <v>85</v>
       </c>
@@ -4202,7 +4202,7 @@
         <v>4.1868000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B20" t="s">
         <v>86</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>41.868000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B21" t="s">
         <v>87</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>3.5999999999999999E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B22" t="s">
         <v>88</v>
       </c>
@@ -4235,7 +4235,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B23" t="s">
         <v>89</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B24" t="s">
         <v>91</v>
       </c>
@@ -4257,7 +4257,7 @@
         <v>0.15384600000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B25" t="s">
         <v>93</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B26" t="s">
         <v>95</v>
       </c>
@@ -4279,7 +4279,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B27" t="s">
         <v>96</v>
       </c>
@@ -4290,7 +4290,7 @@
         <v>37.681199999999997</v>
       </c>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B28" t="s">
         <v>97</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B29" t="s">
         <v>98</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>2.7777769999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B30" t="s">
         <v>99</v>
       </c>
@@ -4323,7 +4323,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B31" t="s">
         <v>38</v>
       </c>
